--- a/Clean Data Stephen.xlsx
+++ b/Clean Data Stephen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\M4ACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,5 +772,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>